--- a/node-api/test-files/sample-candidates.xlsx
+++ b/node-api/test-files/sample-candidates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quadrant\AM\Schedule\node-api\test-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAE3996-BC40-4E9B-AB2E-2BFCBAAE3350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142CBF79-C416-4DF4-B2FC-27A6AC318065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
